--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64384\PycharmProjects\ELEC498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FBAB0-6094-4D4B-A58E-BF1A0563368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4163A497-4DA0-4DD5-B5FC-1030BDF3DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4572" yWindow="624" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,6 +722,9 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -736,6 +739,9 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -750,6 +756,9 @@
       <c r="D5" t="s">
         <v>64</v>
       </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -764,6 +773,9 @@
       <c r="D6" t="s">
         <v>65</v>
       </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -778,6 +790,9 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -792,6 +807,9 @@
       <c r="D8" t="s">
         <v>67</v>
       </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -806,6 +824,9 @@
       <c r="D9" t="s">
         <v>68</v>
       </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -820,6 +841,9 @@
       <c r="D10" t="s">
         <v>69</v>
       </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -834,6 +858,9 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -848,6 +875,9 @@
       <c r="D12" t="s">
         <v>71</v>
       </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -862,6 +892,9 @@
       <c r="D13" t="s">
         <v>72</v>
       </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -876,6 +909,9 @@
       <c r="D14" t="s">
         <v>73</v>
       </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -890,6 +926,9 @@
       <c r="D15" t="s">
         <v>74</v>
       </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -904,8 +943,11 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -918,8 +960,11 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -932,8 +977,11 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -946,8 +994,11 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -960,8 +1011,11 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -974,8 +1028,11 @@
       <c r="D21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -988,8 +1045,11 @@
       <c r="D22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1002,8 +1062,11 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1016,8 +1079,11 @@
       <c r="D24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1030,8 +1096,11 @@
       <c r="D25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1044,8 +1113,11 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1058,8 +1130,11 @@
       <c r="D27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1072,8 +1147,11 @@
       <c r="D28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1086,8 +1164,11 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1100,8 +1181,11 @@
       <c r="D30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1113,6 +1197,9 @@
       </c>
       <c r="D31" t="s">
         <v>90</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
